--- a/georgia/data/ssp_georgia_transformation_cw.xlsx
+++ b/georgia/data/ssp_georgia_transformation_cw.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/cffuentes_tec_mx/Documents/2024/Georgia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\sisepuede_region_nbs\georgia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="8_{557B465F-7599-43D2-9848-38AE5384E3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF93C710-EDA1-4198-BE61-583BE3E854DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A304410-9C46-4988-B524-DEF517338528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17110" yWindow="0" windowWidth="17380" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="yaml" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$Q$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">yaml!$E$1:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="386">
   <si>
     <t>sector</t>
   </si>
@@ -1182,9 +1182,6 @@
     <t>transformation_trns_inc_efficiency_electric.yaml</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>Current Policies A 
 ( NDC 2 deg. Scenario)</t>
   </si>
@@ -1210,16 +1207,19 @@
 https://openknowledge.fao.org/server/api/core/bitstreams/b21f2087-f398-4718-8461-b92afc82e617/content</t>
   </si>
   <si>
-    <t>strategy_baseline</t>
-  </si>
-  <si>
-    <t>strategy_policies_a</t>
-  </si>
-  <si>
-    <t>strategy_policies_b</t>
-  </si>
-  <si>
     <t>strategy_net_zero</t>
+  </si>
+  <si>
+    <t>NDC Unconditional</t>
+  </si>
+  <si>
+    <t>strategy_NDC_2_scenario</t>
+  </si>
+  <si>
+    <t>strategy_NDC_Uncon</t>
+  </si>
+  <si>
+    <t>strategy_NDC_1_scenario</t>
   </si>
 </sst>
 </file>
@@ -1428,9 +1428,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1730,36 +1730,56 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{160117C8-EECD-4956-9DBC-A7F52DEEB160}">
+  <we:reference id="8bc018e3-f345-40d4-8f1d-97951765d531" version="3.0.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA104380862" version="3.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="76.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="40.42578125" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="12" customWidth="1"/>
-    <col min="12" max="15" width="16.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="49.5703125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="49.5703125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="2" width="13.08984375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="76.54296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.08984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="47.54296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="40.453125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" style="12" customWidth="1"/>
+    <col min="12" max="15" width="16.6328125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="49.54296875" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="49.54296875" style="9" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,16 +1814,16 @@
         <v>259</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="20" t="s">
         <v>376</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>289</v>
@@ -1812,7 +1832,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1847,25 +1867,25 @@
         <v>1</v>
       </c>
       <c r="L2" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M2" s="7">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="7">
-        <v>0.45</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1907,9 @@
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="I3" s="15"/>
       <c r="J3" s="7">
         <v>0</v>
@@ -1895,16 +1917,22 @@
       <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="L3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
       <c r="O3" s="7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1954,9 @@
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="7">
         <v>0</v>
@@ -1934,16 +1964,22 @@
       <c r="K4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
       <c r="O4" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +2001,9 @@
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="7">
         <v>0</v>
@@ -1973,16 +2011,22 @@
       <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="L5" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
       <c r="O5" s="7">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2017,25 +2061,25 @@
         <v>248</v>
       </c>
       <c r="L6" s="7">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="7">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -2069,12 +2113,12 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="11">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2109,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="M8" s="7">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="O8" s="7">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>297</v>
@@ -2127,7 +2171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -2161,12 +2205,12 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -2201,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="L10" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M10" s="7">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>290</v>
@@ -2219,7 +2263,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
@@ -2249,16 +2293,22 @@
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.8</v>
+      </c>
       <c r="O11" s="7">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>80</v>
       </c>
@@ -2288,16 +2338,22 @@
       <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.8</v>
+      </c>
       <c r="O12" s="7">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>80</v>
       </c>
@@ -2332,16 +2388,16 @@
         <v>248</v>
       </c>
       <c r="L13" s="7">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="7">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="N13" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>291</v>
@@ -2350,7 +2406,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>80</v>
       </c>
@@ -2385,16 +2441,16 @@
         <v>248</v>
       </c>
       <c r="L14" s="7">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="7">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N14" s="7">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O14" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>292</v>
@@ -2403,7 +2459,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -2437,12 +2493,12 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>127</v>
       </c>
@@ -2476,12 +2532,12 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2515,12 +2571,12 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -2554,12 +2610,12 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>127</v>
       </c>
@@ -2593,12 +2649,12 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
     </row>
-    <row r="20" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -2632,12 +2688,12 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
     </row>
-    <row r="21" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>127</v>
       </c>
@@ -2671,12 +2727,12 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
-    <row r="22" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -2711,13 +2767,13 @@
         <v>1</v>
       </c>
       <c r="L22" s="19">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M22" s="19">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N22" s="19">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="O22" s="19">
         <v>1</v>
@@ -2725,7 +2781,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
     </row>
-    <row r="23" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -2759,12 +2815,12 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
     </row>
-    <row r="24" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -2799,21 +2855,21 @@
         <v>248</v>
       </c>
       <c r="L24" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M24" s="7">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="N24" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
     </row>
-    <row r="25" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2835,7 +2891,9 @@
       <c r="G25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="7">
         <v>0</v>
@@ -2843,16 +2901,22 @@
       <c r="K25" s="7">
         <v>1</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="L25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
       <c r="O25" s="7">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
     </row>
-    <row r="26" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -2874,7 +2938,9 @@
       <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="7">
         <v>0</v>
@@ -2882,16 +2948,22 @@
       <c r="K26" s="7">
         <v>1</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="L26" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.5</v>
+      </c>
       <c r="O26" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
     </row>
-    <row r="27" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2913,7 +2985,9 @@
       <c r="G27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="6"/>
+      <c r="H27" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="I27" s="15"/>
       <c r="J27" s="7">
         <v>0</v>
@@ -2921,16 +2995,22 @@
       <c r="K27" s="7">
         <v>1</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="L27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.5</v>
+      </c>
       <c r="O27" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -2952,7 +3032,9 @@
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="I28" s="15"/>
       <c r="J28" s="7">
         <v>0</v>
@@ -2960,16 +3042,22 @@
       <c r="K28" s="7">
         <v>1</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="L28" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.5</v>
+      </c>
       <c r="O28" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
-    <row r="29" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +3079,9 @@
       <c r="G29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="H29" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="I29" s="15"/>
       <c r="J29" s="7">
         <v>0</v>
@@ -2999,16 +3089,22 @@
       <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="L29" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0.5</v>
+      </c>
       <c r="O29" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
-    <row r="30" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -3042,12 +3138,12 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -3077,16 +3173,22 @@
       <c r="K31" s="7">
         <v>1</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="L31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1</v>
+      </c>
       <c r="O31" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
-    <row r="32" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -3116,16 +3218,22 @@
       <c r="K32" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="L32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1</v>
+      </c>
       <c r="O32" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
     </row>
-    <row r="33" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>151</v>
       </c>
@@ -3162,7 +3270,7 @@
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
     </row>
-    <row r="34" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>151</v>
       </c>
@@ -3196,12 +3304,12 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
-    <row r="35" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>80</v>
       </c>
@@ -3231,16 +3339,22 @@
       <c r="K35" s="7">
         <v>1</v>
       </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="L35" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0.8</v>
+      </c>
       <c r="O35" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
-    <row r="36" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3270,16 +3384,22 @@
       <c r="K36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="L36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0.8</v>
+      </c>
       <c r="O36" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
@@ -3309,16 +3429,22 @@
       <c r="K37" s="7">
         <v>1</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="L37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0.8</v>
+      </c>
       <c r="O37" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
     </row>
-    <row r="38" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -3352,12 +3478,12 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
     </row>
-    <row r="39" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
@@ -3391,12 +3517,12 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
@@ -3430,12 +3556,12 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
     </row>
-    <row r="41" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -3465,16 +3591,22 @@
       <c r="K41" s="7">
         <v>1</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="L41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1</v>
+      </c>
       <c r="O41" s="7">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
-    <row r="42" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
@@ -3504,16 +3636,22 @@
       <c r="K42" s="7">
         <v>1</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="L42" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
       <c r="O42" s="7">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
     </row>
-    <row r="43" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -3543,16 +3681,22 @@
       <c r="K43" s="7">
         <v>1</v>
       </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+      <c r="L43" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
       <c r="O43" s="7">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="P43" s="18"/>
       <c r="Q43" s="18"/>
     </row>
-    <row r="44" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3587,16 +3731,16 @@
         <v>1</v>
       </c>
       <c r="L44" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M44" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O44" s="7">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>300</v>
@@ -3605,7 +3749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -3635,16 +3779,22 @@
       <c r="K45" s="7">
         <v>1</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="L45" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1</v>
+      </c>
       <c r="O45" s="7">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
     </row>
-    <row r="46" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
@@ -3674,16 +3824,22 @@
       <c r="K46" s="7">
         <v>1</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="L46" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1</v>
+      </c>
       <c r="O46" s="7">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
     </row>
-    <row r="47" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>80</v>
       </c>
@@ -3713,16 +3869,22 @@
       <c r="K47" s="7">
         <v>1</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="L47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1</v>
+      </c>
       <c r="O47" s="7">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="18"/>
     </row>
-    <row r="48" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>80</v>
       </c>
@@ -3757,16 +3919,16 @@
         <v>1</v>
       </c>
       <c r="L48" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M48" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N48" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O48" s="7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>302</v>
@@ -3775,7 +3937,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -3810,16 +3972,16 @@
         <v>1</v>
       </c>
       <c r="L49" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M49" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N49" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O49" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>304</v>
@@ -3828,7 +3990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
@@ -3863,16 +4025,16 @@
         <v>1</v>
       </c>
       <c r="L50" s="7">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M50" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N50" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O50" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>304</v>
@@ -3881,7 +4043,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3915,12 +4077,12 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="P51" s="18"/>
       <c r="Q51" s="18"/>
     </row>
-    <row r="52" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
@@ -3954,12 +4116,12 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
     </row>
-    <row r="53" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -3989,16 +4151,22 @@
       <c r="K53" s="7">
         <v>1</v>
       </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
+      <c r="L53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1</v>
+      </c>
       <c r="O53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
     </row>
-    <row r="54" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -4028,16 +4196,22 @@
       <c r="K54" s="7">
         <v>1</v>
       </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
+      <c r="L54" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1</v>
+      </c>
       <c r="O54" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -4067,16 +4241,22 @@
       <c r="K55" s="7">
         <v>1</v>
       </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
+      <c r="L55" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1</v>
+      </c>
       <c r="O55" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
     </row>
-    <row r="56" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -4110,12 +4290,12 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
     </row>
-    <row r="57" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
@@ -4150,16 +4330,16 @@
         <v>1</v>
       </c>
       <c r="L57" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M57" s="7">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="N57" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O57" s="7">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>305</v>
@@ -4168,7 +4348,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -4203,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="L58" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M58" s="7">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="N58" s="7">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O58" s="7">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>307</v>
@@ -4221,7 +4401,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -4256,16 +4436,16 @@
         <v>1</v>
       </c>
       <c r="L59" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M59" s="7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N59" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O59" s="7">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>310</v>
@@ -4274,7 +4454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
@@ -4309,16 +4489,16 @@
         <v>1</v>
       </c>
       <c r="L60" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M60" s="7">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="N60" s="7">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="O60" s="7">
-        <v>0.85</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>311</v>
@@ -4327,7 +4507,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
@@ -4365,13 +4545,13 @@
         <v>0.3</v>
       </c>
       <c r="M61" s="7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="N61" s="7">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" s="22" t="s">
         <v>293</v>
@@ -4380,7 +4560,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>57</v>
       </c>
@@ -4418,13 +4598,13 @@
         <v>0.3</v>
       </c>
       <c r="M62" s="7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="N62" s="7">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O62" s="7">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="P62" s="22" t="s">
         <v>293</v>
@@ -4434,12 +4614,60 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P62">
     <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J2:O6 J8:O21 J23:O62">
+  <conditionalFormatting sqref="J26:K29 J23:O25 J2:O6 J30:O62 J8:O21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:O7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:O22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:O26">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:O27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4451,7 +4679,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:O7">
+  <conditionalFormatting sqref="L28:O28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4463,7 +4691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:O22">
+  <conditionalFormatting sqref="L29:O29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4487,7 +4715,7 @@
     <hyperlink ref="Q60" r:id="rId9" location=":~:text=(1)%20Waste%20management%20in%20the,resources%2C%20promoting%20the%20principles%20of" xr:uid="{034B90F4-3A1A-4C76-A746-E98ABCFFAABB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4495,27 +4723,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6D802-2A41-42EC-BC6C-43AD8F9BB1E2}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="25.90625" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>144</v>
       </c>
@@ -4529,19 +4755,19 @@
         <v>312</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>383</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4556,22 +4782,22 @@
       </c>
       <c r="E2" s="23">
         <f>+IF(VLOOKUP(B2,main!C2:P64,10,FALSE)=0,"",VLOOKUP(B2,main!C2:P64,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="23">
         <f>+IF(VLOOKUP(B2,main!C2:P64,11,FALSE)=0,"",VLOOKUP(B2,main!C2:P64,11,FALSE))</f>
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="23">
         <f>+IF(VLOOKUP(B2,main!C2:P64,12,FALSE)=0,"",VLOOKUP(B2,main!C2:P64,12,FALSE))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="23">
         <f>+IF(VLOOKUP(B2,main!C2:P64,13,FALSE)=0,"",VLOOKUP(B2,main!C2:P64,13,FALSE))</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -4584,24 +4810,24 @@
       <c r="D3" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="23" t="str">
+      <c r="E3" s="23">
         <f>+IF(VLOOKUP(B3,main!C3:P65,10,FALSE)=0,"",VLOOKUP(B3,main!C3:P65,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F3" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="23">
         <f>+IF(VLOOKUP(B3,main!C3:P65,11,FALSE)=0,"",VLOOKUP(B3,main!C3:P65,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G3" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="23">
         <f>+IF(VLOOKUP(B3,main!C3:P65,12,FALSE)=0,"",VLOOKUP(B3,main!C3:P65,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H3" s="23">
         <f>+IF(VLOOKUP(B3,main!C3:P65,13,FALSE)=0,"",VLOOKUP(B3,main!C3:P65,13,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -4614,24 +4840,24 @@
       <c r="D4" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="23" t="str">
+      <c r="E4" s="23">
         <f>+IF(VLOOKUP(B4,main!C4:P66,10,FALSE)=0,"",VLOOKUP(B4,main!C4:P66,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F4" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="23">
         <f>+IF(VLOOKUP(B4,main!C4:P66,11,FALSE)=0,"",VLOOKUP(B4,main!C4:P66,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G4" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="23">
         <f>+IF(VLOOKUP(B4,main!C4:P66,12,FALSE)=0,"",VLOOKUP(B4,main!C4:P66,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H4" s="23">
         <f>+IF(VLOOKUP(B4,main!C4:P66,13,FALSE)=0,"",VLOOKUP(B4,main!C4:P66,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -4644,24 +4870,24 @@
       <c r="D5" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="23" t="str">
+      <c r="E5" s="23">
         <f>+IF(VLOOKUP(B5,main!C5:P67,10,FALSE)=0,"",VLOOKUP(B5,main!C5:P67,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F5" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="23">
         <f>+IF(VLOOKUP(B5,main!C5:P67,11,FALSE)=0,"",VLOOKUP(B5,main!C5:P67,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G5" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="23">
         <f>+IF(VLOOKUP(B5,main!C5:P67,12,FALSE)=0,"",VLOOKUP(B5,main!C5:P67,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H5" s="23">
         <f>+IF(VLOOKUP(B5,main!C5:P67,13,FALSE)=0,"",VLOOKUP(B5,main!C5:P67,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -4676,22 +4902,22 @@
       </c>
       <c r="E6" s="23">
         <f>+IF(VLOOKUP(B6,main!C6:P68,10,FALSE)=0,"",VLOOKUP(B6,main!C6:P68,10,FALSE))</f>
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="23">
         <f>+IF(VLOOKUP(B6,main!C6:P68,11,FALSE)=0,"",VLOOKUP(B6,main!C6:P68,11,FALSE))</f>
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="23">
         <f>+IF(VLOOKUP(B6,main!C6:P68,12,FALSE)=0,"",VLOOKUP(B6,main!C6:P68,12,FALSE))</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H6" s="23">
         <f>+IF(VLOOKUP(B6,main!C6:P68,13,FALSE)=0,"",VLOOKUP(B6,main!C6:P68,13,FALSE))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -4718,10 +4944,10 @@
       </c>
       <c r="H7" s="23">
         <f>+IF(VLOOKUP(B7,main!C7:P69,13,FALSE)=0,"",VLOOKUP(B7,main!C7:P69,13,FALSE))</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -4736,22 +4962,22 @@
       </c>
       <c r="E8" s="23">
         <f>+IF(VLOOKUP(B8,main!C8:P70,10,FALSE)=0,"",VLOOKUP(B8,main!C8:P70,10,FALSE))</f>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="23">
         <f>+IF(VLOOKUP(B8,main!C8:P70,11,FALSE)=0,"",VLOOKUP(B8,main!C8:P70,11,FALSE))</f>
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="23">
         <f>+IF(VLOOKUP(B8,main!C8:P70,12,FALSE)=0,"",VLOOKUP(B8,main!C8:P70,12,FALSE))</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H8" s="23">
         <f>+IF(VLOOKUP(B8,main!C8:P70,13,FALSE)=0,"",VLOOKUP(B8,main!C8:P70,13,FALSE))</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -4778,10 +5004,10 @@
       </c>
       <c r="H9" s="23">
         <f>+IF(VLOOKUP(B9,main!C9:P71,13,FALSE)=0,"",VLOOKUP(B9,main!C9:P71,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4796,22 +5022,22 @@
       </c>
       <c r="E10" s="23">
         <f>+IF(VLOOKUP(B10,main!C10:P72,10,FALSE)=0,"",VLOOKUP(B10,main!C10:P72,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F10" s="23">
         <f>+IF(VLOOKUP(B10,main!C10:P72,11,FALSE)=0,"",VLOOKUP(B10,main!C10:P72,11,FALSE))</f>
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="23">
         <f>+IF(VLOOKUP(B10,main!C10:P72,12,FALSE)=0,"",VLOOKUP(B10,main!C10:P72,12,FALSE))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="23">
         <f>+IF(VLOOKUP(B10,main!C10:P72,13,FALSE)=0,"",VLOOKUP(B10,main!C10:P72,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -4824,24 +5050,24 @@
       <c r="D11" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="23">
         <f>+IF(VLOOKUP(B11,main!C11:P73,10,FALSE)=0,"",VLOOKUP(B11,main!C11:P73,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F11" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="23">
         <f>+IF(VLOOKUP(B11,main!C11:P73,11,FALSE)=0,"",VLOOKUP(B11,main!C11:P73,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="23">
         <f>+IF(VLOOKUP(B11,main!C11:P73,12,FALSE)=0,"",VLOOKUP(B11,main!C11:P73,12,FALSE))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="H11" s="23">
         <f>+IF(VLOOKUP(B11,main!C11:P73,13,FALSE)=0,"",VLOOKUP(B11,main!C11:P73,13,FALSE))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -4854,24 +5080,24 @@
       <c r="D12" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="E12" s="23">
         <f>+IF(VLOOKUP(B12,main!C12:P74,10,FALSE)=0,"",VLOOKUP(B12,main!C12:P74,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F12" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="23">
         <f>+IF(VLOOKUP(B12,main!C12:P74,11,FALSE)=0,"",VLOOKUP(B12,main!C12:P74,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G12" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="23">
         <f>+IF(VLOOKUP(B12,main!C12:P74,12,FALSE)=0,"",VLOOKUP(B12,main!C12:P74,12,FALSE))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="H12" s="23">
         <f>+IF(VLOOKUP(B12,main!C12:P74,13,FALSE)=0,"",VLOOKUP(B12,main!C12:P74,13,FALSE))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -4886,22 +5112,22 @@
       </c>
       <c r="E13" s="23">
         <f>+IF(VLOOKUP(B13,main!C13:P75,10,FALSE)=0,"",VLOOKUP(B13,main!C13:P75,10,FALSE))</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="23">
         <f>+IF(VLOOKUP(B13,main!C13:P75,11,FALSE)=0,"",VLOOKUP(B13,main!C13:P75,11,FALSE))</f>
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="23">
         <f>+IF(VLOOKUP(B13,main!C13:P75,12,FALSE)=0,"",VLOOKUP(B13,main!C13:P75,12,FALSE))</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="23">
         <f>+IF(VLOOKUP(B13,main!C13:P75,13,FALSE)=0,"",VLOOKUP(B13,main!C13:P75,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4916,22 +5142,22 @@
       </c>
       <c r="E14" s="23">
         <f>+IF(VLOOKUP(B14,main!C14:P76,10,FALSE)=0,"",VLOOKUP(B14,main!C14:P76,10,FALSE))</f>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="23">
         <f>+IF(VLOOKUP(B14,main!C14:P76,11,FALSE)=0,"",VLOOKUP(B14,main!C14:P76,11,FALSE))</f>
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="G14" s="23">
         <f>+IF(VLOOKUP(B14,main!C14:P76,12,FALSE)=0,"",VLOOKUP(B14,main!C14:P76,12,FALSE))</f>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="23">
         <f>+IF(VLOOKUP(B14,main!C14:P76,13,FALSE)=0,"",VLOOKUP(B14,main!C14:P76,13,FALSE))</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -4958,10 +5184,10 @@
       </c>
       <c r="H15" s="23">
         <f>+IF(VLOOKUP(B15,main!C15:P77,13,FALSE)=0,"",VLOOKUP(B15,main!C15:P77,13,FALSE))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -4988,10 +5214,10 @@
       </c>
       <c r="H16" s="23">
         <f>+IF(VLOOKUP(B16,main!C16:P78,13,FALSE)=0,"",VLOOKUP(B16,main!C16:P78,13,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -5018,10 +5244,10 @@
       </c>
       <c r="H17" s="23">
         <f>+IF(VLOOKUP(B17,main!C17:P79,13,FALSE)=0,"",VLOOKUP(B17,main!C17:P79,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -5048,10 +5274,10 @@
       </c>
       <c r="H18" s="23">
         <f>+IF(VLOOKUP(B18,main!C18:P80,13,FALSE)=0,"",VLOOKUP(B18,main!C18:P80,13,FALSE))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -5078,10 +5304,10 @@
       </c>
       <c r="H19" s="23">
         <f>+IF(VLOOKUP(B19,main!C19:P81,13,FALSE)=0,"",VLOOKUP(B19,main!C19:P81,13,FALSE))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5108,10 +5334,10 @@
       </c>
       <c r="H20" s="23">
         <f>+IF(VLOOKUP(B20,main!C20:P82,13,FALSE)=0,"",VLOOKUP(B20,main!C20:P82,13,FALSE))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -5138,10 +5364,10 @@
       </c>
       <c r="H21" s="23">
         <f>+IF(VLOOKUP(B21,main!C21:P83,13,FALSE)=0,"",VLOOKUP(B21,main!C21:P83,13,FALSE))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -5156,22 +5382,22 @@
       </c>
       <c r="E22" s="23">
         <f>+IF(VLOOKUP(B22,main!C22:P84,10,FALSE)=0,"",VLOOKUP(B22,main!C22:P84,10,FALSE))</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F22" s="23">
         <f>+IF(VLOOKUP(B22,main!C22:P84,11,FALSE)=0,"",VLOOKUP(B22,main!C22:P84,11,FALSE))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="23">
         <f>+IF(VLOOKUP(B22,main!C22:P84,12,FALSE)=0,"",VLOOKUP(B22,main!C22:P84,12,FALSE))</f>
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="23">
         <f>+IF(VLOOKUP(B22,main!C22:P84,13,FALSE)=0,"",VLOOKUP(B22,main!C22:P84,13,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -5198,10 +5424,10 @@
       </c>
       <c r="H23" s="23">
         <f>+IF(VLOOKUP(B23,main!C23:P85,13,FALSE)=0,"",VLOOKUP(B23,main!C23:P85,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -5216,22 +5442,22 @@
       </c>
       <c r="E24" s="23">
         <f>+IF(VLOOKUP(B24,main!C24:P86,10,FALSE)=0,"",VLOOKUP(B24,main!C24:P86,10,FALSE))</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F24" s="23">
         <f>+IF(VLOOKUP(B24,main!C24:P86,11,FALSE)=0,"",VLOOKUP(B24,main!C24:P86,11,FALSE))</f>
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="23">
         <f>+IF(VLOOKUP(B24,main!C24:P86,12,FALSE)=0,"",VLOOKUP(B24,main!C24:P86,12,FALSE))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="23">
         <f>+IF(VLOOKUP(B24,main!C24:P86,13,FALSE)=0,"",VLOOKUP(B24,main!C24:P86,13,FALSE))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -5244,24 +5470,24 @@
       <c r="D25" t="s">
         <v>334</v>
       </c>
-      <c r="E25" s="23" t="str">
+      <c r="E25" s="23">
         <f>+IF(VLOOKUP(B25,main!C25:P87,10,FALSE)=0,"",VLOOKUP(B25,main!C25:P87,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F25" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="23">
         <f>+IF(VLOOKUP(B25,main!C25:P87,11,FALSE)=0,"",VLOOKUP(B25,main!C25:P87,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G25" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="23">
         <f>+IF(VLOOKUP(B25,main!C25:P87,12,FALSE)=0,"",VLOOKUP(B25,main!C25:P87,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H25" s="23">
         <f>+IF(VLOOKUP(B25,main!C25:P87,13,FALSE)=0,"",VLOOKUP(B25,main!C25:P87,13,FALSE))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -5274,24 +5500,24 @@
       <c r="D26" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="23" t="str">
+      <c r="E26" s="23">
         <f>+IF(VLOOKUP(B26,main!C26:P88,10,FALSE)=0,"",VLOOKUP(B26,main!C26:P88,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F26" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="23">
         <f>+IF(VLOOKUP(B26,main!C26:P88,11,FALSE)=0,"",VLOOKUP(B26,main!C26:P88,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G26" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="23">
         <f>+IF(VLOOKUP(B26,main!C26:P88,12,FALSE)=0,"",VLOOKUP(B26,main!C26:P88,12,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H26" s="23">
         <f>+IF(VLOOKUP(B26,main!C26:P88,13,FALSE)=0,"",VLOOKUP(B26,main!C26:P88,13,FALSE))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -5304,24 +5530,24 @@
       <c r="D27" t="s">
         <v>336</v>
       </c>
-      <c r="E27" s="23" t="str">
+      <c r="E27" s="23">
         <f>+IF(VLOOKUP(B27,main!C27:P89,10,FALSE)=0,"",VLOOKUP(B27,main!C27:P89,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F27" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="23">
         <f>+IF(VLOOKUP(B27,main!C27:P89,11,FALSE)=0,"",VLOOKUP(B27,main!C27:P89,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G27" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="23">
         <f>+IF(VLOOKUP(B27,main!C27:P89,12,FALSE)=0,"",VLOOKUP(B27,main!C27:P89,12,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H27" s="23">
         <f>+IF(VLOOKUP(B27,main!C27:P89,13,FALSE)=0,"",VLOOKUP(B27,main!C27:P89,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -5334,24 +5560,24 @@
       <c r="D28" t="s">
         <v>337</v>
       </c>
-      <c r="E28" s="23" t="str">
+      <c r="E28" s="23">
         <f>+IF(VLOOKUP(B28,main!C28:P90,10,FALSE)=0,"",VLOOKUP(B28,main!C28:P90,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F28" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="23">
         <f>+IF(VLOOKUP(B28,main!C28:P90,11,FALSE)=0,"",VLOOKUP(B28,main!C28:P90,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G28" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="23">
         <f>+IF(VLOOKUP(B28,main!C28:P90,12,FALSE)=0,"",VLOOKUP(B28,main!C28:P90,12,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H28" s="23">
         <f>+IF(VLOOKUP(B28,main!C28:P90,13,FALSE)=0,"",VLOOKUP(B28,main!C28:P90,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -5364,24 +5590,24 @@
       <c r="D29" t="s">
         <v>338</v>
       </c>
-      <c r="E29" s="23" t="str">
+      <c r="E29" s="23">
         <f>+IF(VLOOKUP(B29,main!C29:P91,10,FALSE)=0,"",VLOOKUP(B29,main!C29:P91,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F29" s="23" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="23">
         <f>+IF(VLOOKUP(B29,main!C29:P91,11,FALSE)=0,"",VLOOKUP(B29,main!C29:P91,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G29" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="23">
         <f>+IF(VLOOKUP(B29,main!C29:P91,12,FALSE)=0,"",VLOOKUP(B29,main!C29:P91,12,FALSE))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="H29" s="23">
         <f>+IF(VLOOKUP(B29,main!C29:P91,13,FALSE)=0,"",VLOOKUP(B29,main!C29:P91,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -5408,10 +5634,10 @@
       </c>
       <c r="H30" s="23">
         <f>+IF(VLOOKUP(B30,main!C30:P92,13,FALSE)=0,"",VLOOKUP(B30,main!C30:P92,13,FALSE))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -5424,24 +5650,24 @@
       <c r="D31" t="s">
         <v>340</v>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="23">
         <f>+IF(VLOOKUP(B31,main!C31:P93,10,FALSE)=0,"",VLOOKUP(B31,main!C31:P93,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F31" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="23">
         <f>+IF(VLOOKUP(B31,main!C31:P93,11,FALSE)=0,"",VLOOKUP(B31,main!C31:P93,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G31" s="23" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="23">
         <f>+IF(VLOOKUP(B31,main!C31:P93,12,FALSE)=0,"",VLOOKUP(B31,main!C31:P93,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H31" s="23">
         <f>+IF(VLOOKUP(B31,main!C31:P93,13,FALSE)=0,"",VLOOKUP(B31,main!C31:P93,13,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -5454,24 +5680,24 @@
       <c r="D32" t="s">
         <v>341</v>
       </c>
-      <c r="E32" s="23" t="str">
+      <c r="E32" s="23">
         <f>+IF(VLOOKUP(B32,main!C32:P94,10,FALSE)=0,"",VLOOKUP(B32,main!C32:P94,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F32" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="23">
         <f>+IF(VLOOKUP(B32,main!C32:P94,11,FALSE)=0,"",VLOOKUP(B32,main!C32:P94,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G32" s="23" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="23">
         <f>+IF(VLOOKUP(B32,main!C32:P94,12,FALSE)=0,"",VLOOKUP(B32,main!C32:P94,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H32" s="23">
         <f>+IF(VLOOKUP(B32,main!C32:P94,13,FALSE)=0,"",VLOOKUP(B32,main!C32:P94,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -5501,7 +5727,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -5528,10 +5754,10 @@
       </c>
       <c r="H34" s="23">
         <f>+IF(VLOOKUP(B34,main!C34:P96,13,FALSE)=0,"",VLOOKUP(B34,main!C34:P96,13,FALSE))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -5544,24 +5770,24 @@
       <c r="D35" t="s">
         <v>344</v>
       </c>
-      <c r="E35" s="23" t="str">
+      <c r="E35" s="23">
         <f>+IF(VLOOKUP(B35,main!C35:P97,10,FALSE)=0,"",VLOOKUP(B35,main!C35:P97,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F35" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="23">
         <f>+IF(VLOOKUP(B35,main!C35:P97,11,FALSE)=0,"",VLOOKUP(B35,main!C35:P97,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G35" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="23">
         <f>+IF(VLOOKUP(B35,main!C35:P97,12,FALSE)=0,"",VLOOKUP(B35,main!C35:P97,12,FALSE))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="H35" s="23">
         <f>+IF(VLOOKUP(B35,main!C35:P97,13,FALSE)=0,"",VLOOKUP(B35,main!C35:P97,13,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -5574,24 +5800,24 @@
       <c r="D36" t="s">
         <v>345</v>
       </c>
-      <c r="E36" s="23" t="str">
+      <c r="E36" s="23">
         <f>+IF(VLOOKUP(B36,main!C36:P98,10,FALSE)=0,"",VLOOKUP(B36,main!C36:P98,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F36" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="23">
         <f>+IF(VLOOKUP(B36,main!C36:P98,11,FALSE)=0,"",VLOOKUP(B36,main!C36:P98,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G36" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="23">
         <f>+IF(VLOOKUP(B36,main!C36:P98,12,FALSE)=0,"",VLOOKUP(B36,main!C36:P98,12,FALSE))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="H36" s="23">
         <f>+IF(VLOOKUP(B36,main!C36:P98,13,FALSE)=0,"",VLOOKUP(B36,main!C36:P98,13,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -5604,24 +5830,24 @@
       <c r="D37" t="s">
         <v>346</v>
       </c>
-      <c r="E37" s="23" t="str">
+      <c r="E37" s="23">
         <f>+IF(VLOOKUP(B37,main!C37:P99,10,FALSE)=0,"",VLOOKUP(B37,main!C37:P99,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F37" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="23">
         <f>+IF(VLOOKUP(B37,main!C37:P99,11,FALSE)=0,"",VLOOKUP(B37,main!C37:P99,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G37" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="23">
         <f>+IF(VLOOKUP(B37,main!C37:P99,12,FALSE)=0,"",VLOOKUP(B37,main!C37:P99,12,FALSE))</f>
-        <v/>
+        <v>0.8</v>
       </c>
       <c r="H37" s="23">
         <f>+IF(VLOOKUP(B37,main!C37:P99,13,FALSE)=0,"",VLOOKUP(B37,main!C37:P99,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -5648,10 +5874,10 @@
       </c>
       <c r="H38" s="23">
         <f>+IF(VLOOKUP(B38,main!C38:P100,13,FALSE)=0,"",VLOOKUP(B38,main!C38:P100,13,FALSE))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -5678,10 +5904,10 @@
       </c>
       <c r="H39" s="23">
         <f>+IF(VLOOKUP(B39,main!C39:P101,13,FALSE)=0,"",VLOOKUP(B39,main!C39:P101,13,FALSE))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -5708,10 +5934,10 @@
       </c>
       <c r="H40" s="23">
         <f>+IF(VLOOKUP(B40,main!C40:P102,13,FALSE)=0,"",VLOOKUP(B40,main!C40:P102,13,FALSE))</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -5724,24 +5950,24 @@
       <c r="D41" t="s">
         <v>373</v>
       </c>
-      <c r="E41" s="23" t="str">
+      <c r="E41" s="23">
         <f>+IF(VLOOKUP(B41,main!C41:P103,10,FALSE)=0,"",VLOOKUP(B41,main!C41:P103,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F41" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="23">
         <f>+IF(VLOOKUP(B41,main!C41:P103,11,FALSE)=0,"",VLOOKUP(B41,main!C41:P103,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G41" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="23">
         <f>+IF(VLOOKUP(B41,main!C41:P103,12,FALSE)=0,"",VLOOKUP(B41,main!C41:P103,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H41" s="23">
         <f>+IF(VLOOKUP(B41,main!C41:P103,13,FALSE)=0,"",VLOOKUP(B41,main!C41:P103,13,FALSE))</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -5754,24 +5980,24 @@
       <c r="D42" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="23" t="str">
+      <c r="E42" s="23">
         <f>+IF(VLOOKUP(B42,main!C42:P104,10,FALSE)=0,"",VLOOKUP(B42,main!C42:P104,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F42" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="23">
         <f>+IF(VLOOKUP(B42,main!C42:P104,11,FALSE)=0,"",VLOOKUP(B42,main!C42:P104,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G42" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="23">
         <f>+IF(VLOOKUP(B42,main!C42:P104,12,FALSE)=0,"",VLOOKUP(B42,main!C42:P104,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H42" s="23">
         <f>+IF(VLOOKUP(B42,main!C42:P104,13,FALSE)=0,"",VLOOKUP(B42,main!C42:P104,13,FALSE))</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -5784,24 +6010,24 @@
       <c r="D43" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="23" t="str">
+      <c r="E43" s="23">
         <f>+IF(VLOOKUP(B43,main!C43:P105,10,FALSE)=0,"",VLOOKUP(B43,main!C43:P105,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F43" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F43" s="23">
         <f>+IF(VLOOKUP(B43,main!C43:P105,11,FALSE)=0,"",VLOOKUP(B43,main!C43:P105,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G43" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="23">
         <f>+IF(VLOOKUP(B43,main!C43:P105,12,FALSE)=0,"",VLOOKUP(B43,main!C43:P105,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H43" s="23">
         <f>+IF(VLOOKUP(B43,main!C43:P105,13,FALSE)=0,"",VLOOKUP(B43,main!C43:P105,13,FALSE))</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -5816,22 +6042,22 @@
       </c>
       <c r="E44" s="23">
         <f>+IF(VLOOKUP(B44,main!C44:P106,10,FALSE)=0,"",VLOOKUP(B44,main!C44:P106,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F44" s="23">
         <f>+IF(VLOOKUP(B44,main!C44:P106,11,FALSE)=0,"",VLOOKUP(B44,main!C44:P106,11,FALSE))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G44" s="23">
         <f>+IF(VLOOKUP(B44,main!C44:P106,12,FALSE)=0,"",VLOOKUP(B44,main!C44:P106,12,FALSE))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H44" s="23">
         <f>+IF(VLOOKUP(B44,main!C44:P106,13,FALSE)=0,"",VLOOKUP(B44,main!C44:P106,13,FALSE))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -5844,24 +6070,24 @@
       <c r="D45" t="s">
         <v>353</v>
       </c>
-      <c r="E45" s="23" t="str">
+      <c r="E45" s="23">
         <f>+IF(VLOOKUP(B45,main!C45:P107,10,FALSE)=0,"",VLOOKUP(B45,main!C45:P107,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F45" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F45" s="23">
         <f>+IF(VLOOKUP(B45,main!C45:P107,11,FALSE)=0,"",VLOOKUP(B45,main!C45:P107,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G45" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="23">
         <f>+IF(VLOOKUP(B45,main!C45:P107,12,FALSE)=0,"",VLOOKUP(B45,main!C45:P107,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="23">
         <f>+IF(VLOOKUP(B45,main!C45:P107,13,FALSE)=0,"",VLOOKUP(B45,main!C45:P107,13,FALSE))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -5874,24 +6100,24 @@
       <c r="D46" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="23" t="str">
+      <c r="E46" s="23">
         <f>+IF(VLOOKUP(B46,main!C46:P108,10,FALSE)=0,"",VLOOKUP(B46,main!C46:P108,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F46" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="23">
         <f>+IF(VLOOKUP(B46,main!C46:P108,11,FALSE)=0,"",VLOOKUP(B46,main!C46:P108,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G46" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="23">
         <f>+IF(VLOOKUP(B46,main!C46:P108,12,FALSE)=0,"",VLOOKUP(B46,main!C46:P108,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H46" s="23">
         <f>+IF(VLOOKUP(B46,main!C46:P108,13,FALSE)=0,"",VLOOKUP(B46,main!C46:P108,13,FALSE))</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -5904,24 +6130,24 @@
       <c r="D47" t="s">
         <v>355</v>
       </c>
-      <c r="E47" s="23" t="str">
+      <c r="E47" s="23">
         <f>+IF(VLOOKUP(B47,main!C47:P109,10,FALSE)=0,"",VLOOKUP(B47,main!C47:P109,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F47" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="23">
         <f>+IF(VLOOKUP(B47,main!C47:P109,11,FALSE)=0,"",VLOOKUP(B47,main!C47:P109,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G47" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="23">
         <f>+IF(VLOOKUP(B47,main!C47:P109,12,FALSE)=0,"",VLOOKUP(B47,main!C47:P109,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H47" s="23">
         <f>+IF(VLOOKUP(B47,main!C47:P109,13,FALSE)=0,"",VLOOKUP(B47,main!C47:P109,13,FALSE))</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -5936,22 +6162,22 @@
       </c>
       <c r="E48" s="23">
         <f>+IF(VLOOKUP(B48,main!C48:P110,10,FALSE)=0,"",VLOOKUP(B48,main!C48:P110,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F48" s="23">
         <f>+IF(VLOOKUP(B48,main!C48:P110,11,FALSE)=0,"",VLOOKUP(B48,main!C48:P110,11,FALSE))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="23">
         <f>+IF(VLOOKUP(B48,main!C48:P110,12,FALSE)=0,"",VLOOKUP(B48,main!C48:P110,12,FALSE))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H48" s="23">
         <f>+IF(VLOOKUP(B48,main!C48:P110,13,FALSE)=0,"",VLOOKUP(B48,main!C48:P110,13,FALSE))</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -5966,22 +6192,22 @@
       </c>
       <c r="E49" s="23">
         <f>+IF(VLOOKUP(B49,main!C49:P111,10,FALSE)=0,"",VLOOKUP(B49,main!C49:P111,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F49" s="23">
         <f>+IF(VLOOKUP(B49,main!C49:P111,11,FALSE)=0,"",VLOOKUP(B49,main!C49:P111,11,FALSE))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="23">
         <f>+IF(VLOOKUP(B49,main!C49:P111,12,FALSE)=0,"",VLOOKUP(B49,main!C49:P111,12,FALSE))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H49" s="23">
         <f>+IF(VLOOKUP(B49,main!C49:P111,13,FALSE)=0,"",VLOOKUP(B49,main!C49:P111,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5996,22 +6222,22 @@
       </c>
       <c r="E50" s="23">
         <f>+IF(VLOOKUP(B50,main!C50:P112,10,FALSE)=0,"",VLOOKUP(B50,main!C50:P112,10,FALSE))</f>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F50" s="23">
         <f>+IF(VLOOKUP(B50,main!C50:P112,11,FALSE)=0,"",VLOOKUP(B50,main!C50:P112,11,FALSE))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="23">
         <f>+IF(VLOOKUP(B50,main!C50:P112,12,FALSE)=0,"",VLOOKUP(B50,main!C50:P112,12,FALSE))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H50" s="23">
         <f>+IF(VLOOKUP(B50,main!C50:P112,13,FALSE)=0,"",VLOOKUP(B50,main!C50:P112,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -6038,10 +6264,10 @@
       </c>
       <c r="H51" s="23">
         <f>+IF(VLOOKUP(B51,main!C51:P113,13,FALSE)=0,"",VLOOKUP(B51,main!C51:P113,13,FALSE))</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -6068,10 +6294,10 @@
       </c>
       <c r="H52" s="23">
         <f>+IF(VLOOKUP(B52,main!C52:P114,13,FALSE)=0,"",VLOOKUP(B52,main!C52:P114,13,FALSE))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -6084,24 +6310,24 @@
       <c r="D53" t="s">
         <v>361</v>
       </c>
-      <c r="E53" s="23" t="str">
+      <c r="E53" s="23">
         <f>+IF(VLOOKUP(B53,main!C53:P115,10,FALSE)=0,"",VLOOKUP(B53,main!C53:P115,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F53" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F53" s="23">
         <f>+IF(VLOOKUP(B53,main!C53:P115,11,FALSE)=0,"",VLOOKUP(B53,main!C53:P115,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G53" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="23">
         <f>+IF(VLOOKUP(B53,main!C53:P115,12,FALSE)=0,"",VLOOKUP(B53,main!C53:P115,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H53" s="23">
         <f>+IF(VLOOKUP(B53,main!C53:P115,13,FALSE)=0,"",VLOOKUP(B53,main!C53:P115,13,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -6114,24 +6340,24 @@
       <c r="D54" t="s">
         <v>362</v>
       </c>
-      <c r="E54" s="23" t="str">
+      <c r="E54" s="23">
         <f>+IF(VLOOKUP(B54,main!C54:P116,10,FALSE)=0,"",VLOOKUP(B54,main!C54:P116,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F54" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="23">
         <f>+IF(VLOOKUP(B54,main!C54:P116,11,FALSE)=0,"",VLOOKUP(B54,main!C54:P116,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G54" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="23">
         <f>+IF(VLOOKUP(B54,main!C54:P116,12,FALSE)=0,"",VLOOKUP(B54,main!C54:P116,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H54" s="23">
         <f>+IF(VLOOKUP(B54,main!C54:P116,13,FALSE)=0,"",VLOOKUP(B54,main!C54:P116,13,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -6144,24 +6370,24 @@
       <c r="D55" t="s">
         <v>363</v>
       </c>
-      <c r="E55" s="23" t="str">
+      <c r="E55" s="23">
         <f>+IF(VLOOKUP(B55,main!C55:P117,10,FALSE)=0,"",VLOOKUP(B55,main!C55:P117,10,FALSE))</f>
-        <v/>
-      </c>
-      <c r="F55" s="23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="23">
         <f>+IF(VLOOKUP(B55,main!C55:P117,11,FALSE)=0,"",VLOOKUP(B55,main!C55:P117,11,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G55" s="23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="23">
         <f>+IF(VLOOKUP(B55,main!C55:P117,12,FALSE)=0,"",VLOOKUP(B55,main!C55:P117,12,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H55" s="23">
         <f>+IF(VLOOKUP(B55,main!C55:P117,13,FALSE)=0,"",VLOOKUP(B55,main!C55:P117,13,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -6188,10 +6414,10 @@
       </c>
       <c r="H56" s="23">
         <f>+IF(VLOOKUP(B56,main!C56:P118,13,FALSE)=0,"",VLOOKUP(B56,main!C56:P118,13,FALSE))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -6206,22 +6432,22 @@
       </c>
       <c r="E57" s="23">
         <f>+IF(VLOOKUP(B57,main!C57:P119,10,FALSE)=0,"",VLOOKUP(B57,main!C57:P119,10,FALSE))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F57" s="23">
         <f>+IF(VLOOKUP(B57,main!C57:P119,11,FALSE)=0,"",VLOOKUP(B57,main!C57:P119,11,FALSE))</f>
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="23">
         <f>+IF(VLOOKUP(B57,main!C57:P119,12,FALSE)=0,"",VLOOKUP(B57,main!C57:P119,12,FALSE))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H57" s="23">
         <f>+IF(VLOOKUP(B57,main!C57:P119,13,FALSE)=0,"",VLOOKUP(B57,main!C57:P119,13,FALSE))</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -6236,22 +6462,22 @@
       </c>
       <c r="E58" s="23">
         <f>+IF(VLOOKUP(B58,main!C58:P120,10,FALSE)=0,"",VLOOKUP(B58,main!C58:P120,10,FALSE))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F58" s="23">
         <f>+IF(VLOOKUP(B58,main!C58:P120,11,FALSE)=0,"",VLOOKUP(B58,main!C58:P120,11,FALSE))</f>
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="G58" s="23">
         <f>+IF(VLOOKUP(B58,main!C58:P120,12,FALSE)=0,"",VLOOKUP(B58,main!C58:P120,12,FALSE))</f>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H58" s="23">
         <f>+IF(VLOOKUP(B58,main!C58:P120,13,FALSE)=0,"",VLOOKUP(B58,main!C58:P120,13,FALSE))</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -6266,22 +6492,22 @@
       </c>
       <c r="E59" s="23">
         <f>+IF(VLOOKUP(B59,main!C59:P121,10,FALSE)=0,"",VLOOKUP(B59,main!C59:P121,10,FALSE))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F59" s="23">
         <f>+IF(VLOOKUP(B59,main!C59:P121,11,FALSE)=0,"",VLOOKUP(B59,main!C59:P121,11,FALSE))</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="23">
         <f>+IF(VLOOKUP(B59,main!C59:P121,12,FALSE)=0,"",VLOOKUP(B59,main!C59:P121,12,FALSE))</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H59" s="23">
         <f>+IF(VLOOKUP(B59,main!C59:P121,13,FALSE)=0,"",VLOOKUP(B59,main!C59:P121,13,FALSE))</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -6296,22 +6522,22 @@
       </c>
       <c r="E60" s="23">
         <f>+IF(VLOOKUP(B60,main!C60:P122,10,FALSE)=0,"",VLOOKUP(B60,main!C60:P122,10,FALSE))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F60" s="23">
         <f>+IF(VLOOKUP(B60,main!C60:P122,11,FALSE)=0,"",VLOOKUP(B60,main!C60:P122,11,FALSE))</f>
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="G60" s="23">
         <f>+IF(VLOOKUP(B60,main!C60:P122,12,FALSE)=0,"",VLOOKUP(B60,main!C60:P122,12,FALSE))</f>
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H60" s="23">
         <f>+IF(VLOOKUP(B60,main!C60:P122,13,FALSE)=0,"",VLOOKUP(B60,main!C60:P122,13,FALSE))</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -6330,18 +6556,18 @@
       </c>
       <c r="F61" s="23">
         <f>+IF(VLOOKUP(B61,main!C61:P123,11,FALSE)=0,"",VLOOKUP(B61,main!C61:P123,11,FALSE))</f>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="23">
         <f>+IF(VLOOKUP(B61,main!C61:P123,12,FALSE)=0,"",VLOOKUP(B61,main!C61:P123,12,FALSE))</f>
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="H61" s="23">
         <f>+IF(VLOOKUP(B61,main!C61:P123,13,FALSE)=0,"",VLOOKUP(B61,main!C61:P123,13,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -6360,19 +6586,19 @@
       </c>
       <c r="F62" s="23">
         <f>+IF(VLOOKUP(B62,main!C62:P124,11,FALSE)=0,"",VLOOKUP(B62,main!C62:P124,11,FALSE))</f>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G62" s="23">
         <f>+IF(VLOOKUP(B62,main!C62:P124,12,FALSE)=0,"",VLOOKUP(B62,main!C62:P124,12,FALSE))</f>
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="H62" s="23">
         <f>+IF(VLOOKUP(B62,main!C62:P124,13,FALSE)=0,"",VLOOKUP(B62,main!C62:P124,13,FALSE))</f>
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:H62" xr:uid="{1CB6D802-2A41-42EC-BC6C-43AD8F9BB1E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>